--- a/bitonicSort/bitonicSort.xlsx
+++ b/bitonicSort/bitonicSort.xlsx
@@ -308,10 +308,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,10 +793,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -844,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="1"/>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -971,7 +974,7 @@
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" ht="16" thickBot="1">
-      <c r="R6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
@@ -983,32 +986,32 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:P7" si="0">D2</f>
+        <f t="shared" ref="D7" si="0">D2</f>
         <v>23</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <f t="shared" ref="F7:P7" si="1">F2</f>
+        <f t="shared" ref="F7" si="1">F2</f>
         <v>19</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" ref="H7:P7" si="2">H2</f>
+        <f t="shared" ref="H7" si="2">H2</f>
         <v>92</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:P7" si="3">J2</f>
+        <f t="shared" ref="J7" si="3">J2</f>
         <v>4</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <f t="shared" ref="L7:P7" si="4">L2</f>
+        <f t="shared" ref="L7" si="4">L2</f>
         <v>33</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3">
-        <f t="shared" ref="N7:P7" si="5">N2</f>
+        <f t="shared" ref="N7" si="5">N2</f>
         <v>7</v>
       </c>
       <c r="O7" s="3"/>
@@ -1017,7 +1020,7 @@
         <v>37</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1030,34 +1033,34 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:P8" si="7">D3</f>
+        <f t="shared" ref="D8" si="7">D3</f>
         <v>90</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:P8" si="8">F3</f>
+        <f t="shared" ref="F8" si="8">F3</f>
         <v>91</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H8:P8" si="9">H3</f>
+        <f t="shared" ref="H8" si="9">H3</f>
         <v>69</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:P8" si="10">J3</f>
+        <f t="shared" ref="J8" si="10">J3</f>
         <v>65</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ref="L8:P8" si="11">L3</f>
+        <f t="shared" ref="L8" si="11">L3</f>
         <v>93</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8:P8" si="12">N3</f>
+        <f t="shared" ref="N8" si="12">N3</f>
         <v>56</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -1095,7 +1098,7 @@
         <f>N7</f>
         <v>7</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
@@ -1133,7 +1136,7 @@
         <f>N8</f>
         <v>56</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
@@ -1171,7 +1174,7 @@
         <f>SMALL(P7:P10,2)</f>
         <v>26</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1211,7 +1214,7 @@
         <f>SMALL(P7:P10,1)</f>
         <v>7</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
@@ -1249,7 +1252,7 @@
         <f>SMALL(P7:P10,4)</f>
         <v>56</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
@@ -1287,7 +1290,7 @@
         <f>SMALL(P7:P10,3)</f>
         <v>37</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="16" thickBot="1">
       <c r="A16" s="1"/>
@@ -1307,7 +1310,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
@@ -1345,7 +1348,7 @@
         <f>P12</f>
         <v>26</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1385,7 +1388,7 @@
         <f>P13</f>
         <v>7</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
@@ -1423,7 +1426,7 @@
         <f>L17</f>
         <v>65</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
@@ -1461,7 +1464,7 @@
         <f>L18</f>
         <v>93</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="10"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
@@ -1499,7 +1502,7 @@
         <f>SMALL(P17:P20,2)</f>
         <v>26</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1539,7 +1542,7 @@
         <f>SMALL(P17:P20,1)</f>
         <v>7</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
@@ -1577,7 +1580,7 @@
         <f>SMALL(P17:P20,4)</f>
         <v>93</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
@@ -1615,7 +1618,7 @@
         <f>SMALL(P17:P20,3)</f>
         <v>65</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="5"/>
@@ -1646,34 +1649,34 @@
         <v>18</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:P27" si="13">D22</f>
+        <f t="shared" ref="D27" si="13">D22</f>
         <v>23</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ref="F27:P27" si="14">F22</f>
+        <f t="shared" ref="F27" si="14">F22</f>
         <v>91</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" ref="H27:P27" si="15">H22</f>
+        <f t="shared" ref="H27" si="15">H22</f>
         <v>69</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" ref="J27:P27" si="16">J22</f>
+        <f t="shared" ref="J27" si="16">J22</f>
         <v>37</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ref="L27:P27" si="17">L22</f>
+        <f t="shared" ref="L27" si="17">L22</f>
         <v>65</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" ref="N27:P27" si="18">N22</f>
+        <f t="shared" ref="N27" si="18">N22</f>
         <v>33</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ref="P27:P28" si="19">P22</f>
         <v>26</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1686,34 +1689,34 @@
         <v>2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:P28" si="20">D23</f>
+        <f t="shared" ref="D28" si="20">D23</f>
         <v>19</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ref="F28:P28" si="21">F23</f>
+        <f t="shared" ref="F28" si="21">F23</f>
         <v>92</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:P28" si="22">H23</f>
+        <f t="shared" ref="H28" si="22">H23</f>
         <v>90</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28:P28" si="23">J23</f>
+        <f t="shared" ref="J28" si="23">J23</f>
         <v>56</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:P28" si="24">L23</f>
+        <f t="shared" ref="L28" si="24">L23</f>
         <v>93</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:P28" si="25">N23</f>
+        <f t="shared" ref="N28" si="25">N23</f>
         <v>4</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
@@ -1751,7 +1754,7 @@
         <f>N27</f>
         <v>33</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
@@ -1789,7 +1792,7 @@
         <f>N28</f>
         <v>4</v>
       </c>
-      <c r="R30" s="9"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2" t="s">
@@ -1827,7 +1830,7 @@
         <f>SMALL(P27:P30,2)</f>
         <v>7</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1867,7 +1870,7 @@
         <f>SMALL(P27:P30,1)</f>
         <v>4</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
@@ -1905,7 +1908,7 @@
         <f>SMALL(P27:P30,4)</f>
         <v>33</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="2" t="s">
@@ -1943,7 +1946,7 @@
         <f>SMALL(P27:P30,3)</f>
         <v>26</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18" ht="16" thickBot="1">
       <c r="A36" s="1"/>
@@ -1963,7 +1966,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="10"/>
+      <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
@@ -1974,34 +1977,34 @@
         <v>18</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:P38" si="26">D32</f>
+        <f t="shared" ref="D37:D38" si="26">D32</f>
         <v>19</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" ref="F37:P38" si="27">F32</f>
+        <f t="shared" ref="F37:F38" si="27">F32</f>
         <v>90</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" ref="H37:P38" si="28">H32</f>
+        <f t="shared" ref="H37:H38" si="28">H32</f>
         <v>91</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" ref="J37:P38" si="29">J32</f>
+        <f t="shared" ref="J37:J38" si="29">J32</f>
         <v>65</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" ref="L37:P38" si="30">L32</f>
+        <f t="shared" ref="L37:L38" si="30">L32</f>
         <v>56</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" ref="N37:P38" si="31">N32</f>
+        <f t="shared" ref="N37:N38" si="31">N32</f>
         <v>26</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" ref="P37:P38" si="32">P32</f>
         <v>7</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2041,7 +2044,7 @@
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="2" t="s">
@@ -2079,7 +2082,7 @@
         <f t="shared" ref="P39:P40" si="38">H37</f>
         <v>91</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
@@ -2117,7 +2120,7 @@
         <f t="shared" si="38"/>
         <v>92</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="10"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
@@ -2155,7 +2158,7 @@
         <f>LARGE(P37:P40,2)</f>
         <v>91</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2195,7 +2198,7 @@
         <f>LARGE(P37:P40,1)</f>
         <v>92</v>
       </c>
-      <c r="R43" s="9"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="2" t="s">
@@ -2233,7 +2236,7 @@
         <f>LARGE(P37:P40,4)</f>
         <v>4</v>
       </c>
-      <c r="R44" s="9"/>
+      <c r="R44" s="10"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="2" t="s">
@@ -2271,7 +2274,7 @@
         <f>LARGE(P37:P40,3)</f>
         <v>7</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="10"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="5"/>
@@ -2329,7 +2332,7 @@
         <f>P42</f>
         <v>91</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2369,7 +2372,7 @@
         <f>P43</f>
         <v>92</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="10"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="2" t="s">
@@ -2407,7 +2410,7 @@
         <f>L47</f>
         <v>37</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="10"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="2" t="s">
@@ -2445,7 +2448,7 @@
         <f>L48</f>
         <v>56</v>
       </c>
-      <c r="R50" s="9"/>
+      <c r="R50" s="10"/>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="2" t="s">
@@ -2483,7 +2486,7 @@
         <f>LARGE(P47:P50,2)</f>
         <v>91</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="R52" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2531,7 +2534,7 @@
         <v>92</v>
       </c>
       <c r="Q53" s="6"/>
-      <c r="R53" s="9"/>
+      <c r="R53" s="10"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="2" t="s">
@@ -2577,7 +2580,7 @@
         <v>37</v>
       </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="9"/>
+      <c r="R54" s="10"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="2" t="s">
@@ -2623,7 +2626,7 @@
         <v>56</v>
       </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="9"/>
+      <c r="R55" s="10"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="5"/>
@@ -2655,32 +2658,32 @@
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6">
-        <f t="shared" ref="D57:P57" si="39">D52</f>
+        <f t="shared" ref="D57" si="39">D52</f>
         <v>7</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6">
-        <f t="shared" ref="F57:P57" si="40">F52</f>
+        <f t="shared" ref="F57" si="40">F52</f>
         <v>26</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6">
-        <f t="shared" ref="H57:P57" si="41">H52</f>
+        <f t="shared" ref="H57" si="41">H52</f>
         <v>19</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6">
-        <f t="shared" ref="J57:P57" si="42">J52</f>
+        <f t="shared" ref="J57" si="42">J52</f>
         <v>69</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6">
-        <f t="shared" ref="L57:P57" si="43">L52</f>
+        <f t="shared" ref="L57" si="43">L52</f>
         <v>56</v>
       </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6">
-        <f t="shared" ref="N57:P57" si="44">N52</f>
+        <f t="shared" ref="N57" si="44">N52</f>
         <v>90</v>
       </c>
       <c r="O57" s="6"/>
@@ -2689,7 +2692,7 @@
         <v>91</v>
       </c>
       <c r="Q57" s="6"/>
-      <c r="R57" s="9" t="s">
+      <c r="R57" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2703,32 +2706,32 @@
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6">
-        <f t="shared" ref="D58:P58" si="46">D53</f>
+        <f t="shared" ref="D58" si="46">D53</f>
         <v>4</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6">
-        <f t="shared" ref="F58:P58" si="47">F53</f>
+        <f t="shared" ref="F58" si="47">F53</f>
         <v>33</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6">
-        <f t="shared" ref="H58:P58" si="48">H53</f>
+        <f t="shared" ref="H58" si="48">H53</f>
         <v>23</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6">
-        <f t="shared" ref="J58:P58" si="49">J53</f>
+        <f t="shared" ref="J58" si="49">J53</f>
         <v>65</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6">
-        <f t="shared" ref="L58:P58" si="50">L53</f>
+        <f t="shared" ref="L58" si="50">L53</f>
         <v>37</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6">
-        <f t="shared" ref="N58:P58" si="51">N53</f>
+        <f t="shared" ref="N58" si="51">N53</f>
         <v>93</v>
       </c>
       <c r="O58" s="6"/>
@@ -2737,7 +2740,7 @@
         <v>92</v>
       </c>
       <c r="Q58" s="6"/>
-      <c r="R58" s="9"/>
+      <c r="R58" s="10"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="2" t="s">
@@ -2783,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="Q59" s="6"/>
-      <c r="R59" s="9"/>
+      <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="2" t="s">
@@ -2829,7 +2832,7 @@
         <v>93</v>
       </c>
       <c r="Q60" s="6"/>
-      <c r="R60" s="9"/>
+      <c r="R60" s="10"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="2" t="s">
@@ -2844,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" ref="F62:P62" si="52">SMALL(F57:F60,2)</f>
+        <f t="shared" ref="F62" si="52">SMALL(F57:F60,2)</f>
         <v>23</v>
       </c>
       <c r="H62" s="2">
@@ -2860,14 +2863,14 @@
         <v>65</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" ref="N62:Q62" si="53">SMALL(N57:N60,2)</f>
+        <f t="shared" ref="N62" si="53">SMALL(N57:N60,2)</f>
         <v>91</v>
       </c>
       <c r="P62" s="2">
         <f>LARGE(P57:P60,2)</f>
         <v>92</v>
       </c>
-      <c r="R62" s="9" t="s">
+      <c r="R62" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2884,11 +2887,11 @@
         <v>18</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" ref="F63:P63" si="54">SMALL(F57:F60,1)</f>
+        <f t="shared" ref="F63" si="54">SMALL(F57:F60,1)</f>
         <v>19</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" ref="H63:P63" si="55">LARGE(H57:H60,1)</f>
+        <f t="shared" ref="H63" si="55">LARGE(H57:H60,1)</f>
         <v>33</v>
       </c>
       <c r="J63" s="2">
@@ -2900,14 +2903,14 @@
         <v>69</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" ref="N63:Q63" si="56">SMALL(N57:N60,1)</f>
+        <f t="shared" ref="N63" si="56">SMALL(N57:N60,1)</f>
         <v>90</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" ref="P63:Q63" si="57">LARGE(P57:P60,1)</f>
+        <f t="shared" ref="P63" si="57">LARGE(P57:P60,1)</f>
         <v>93</v>
       </c>
-      <c r="R63" s="9"/>
+      <c r="R63" s="10"/>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
@@ -2922,11 +2925,11 @@
         <v>2</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" ref="F64:P64" si="58">SMALL(F57:F60,4)</f>
+        <f t="shared" ref="F64" si="58">SMALL(F57:F60,4)</f>
         <v>33</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" ref="H64:P64" si="59">LARGE(H57:H60,4)</f>
+        <f t="shared" ref="H64" si="59">LARGE(H57:H60,4)</f>
         <v>19</v>
       </c>
       <c r="J64" s="2">
@@ -2938,14 +2941,14 @@
         <v>37</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" ref="N64:Q64" si="60">SMALL(N57:N60,4)</f>
+        <f t="shared" ref="N64" si="60">SMALL(N57:N60,4)</f>
         <v>93</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" ref="P64:Q64" si="61">LARGE(P57:P60,4)</f>
+        <f t="shared" ref="P64" si="61">LARGE(P57:P60,4)</f>
         <v>90</v>
       </c>
-      <c r="R64" s="9"/>
+      <c r="R64" s="10"/>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="2" t="s">
@@ -2960,11 +2963,11 @@
         <v>4</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" ref="F65:P65" si="62">SMALL(F57:F60,3)</f>
+        <f t="shared" ref="F65" si="62">SMALL(F57:F60,3)</f>
         <v>26</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" ref="H65:P65" si="63">LARGE(H57:H60,3)</f>
+        <f t="shared" ref="H65" si="63">LARGE(H57:H60,3)</f>
         <v>23</v>
       </c>
       <c r="J65" s="2">
@@ -2976,14 +2979,14 @@
         <v>56</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" ref="N65:Q65" si="64">SMALL(N57:N60,3)</f>
+        <f t="shared" ref="N65" si="64">SMALL(N57:N60,3)</f>
         <v>92</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" ref="P65:Q65" si="65">LARGE(P57:P60,3)</f>
+        <f t="shared" ref="P65" si="65">LARGE(P57:P60,3)</f>
         <v>91</v>
       </c>
-      <c r="R65" s="9"/>
+      <c r="R65" s="10"/>
     </row>
     <row r="66" spans="1:18" ht="16" thickBot="1">
       <c r="A66" s="1"/>
@@ -3003,7 +3006,7 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66" s="10"/>
+      <c r="R66" s="9"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="2" t="s">
@@ -3014,34 +3017,34 @@
         <v>2</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67:P67" si="66">SMALL(D62:D63,1)</f>
+        <f t="shared" ref="D67" si="66">SMALL(D62:D63,1)</f>
         <v>7</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:P67" si="67">SMALL(F62:F63,1)</f>
+        <f t="shared" ref="F67" si="67">SMALL(F62:F63,1)</f>
         <v>19</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:P67" si="68">SMALL(H62:H63,1)</f>
+        <f t="shared" ref="H67" si="68">SMALL(H62:H63,1)</f>
         <v>26</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" ref="J67:P67" si="69">SMALL(J62:J63,1)</f>
+        <f t="shared" ref="J67" si="69">SMALL(J62:J63,1)</f>
         <v>37</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" ref="L67:P67" si="70">SMALL(L62:L63,1)</f>
+        <f t="shared" ref="L67" si="70">SMALL(L62:L63,1)</f>
         <v>65</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" ref="N67:P67" si="71">SMALL(N62:N63,1)</f>
+        <f t="shared" ref="N67" si="71">SMALL(N62:N63,1)</f>
         <v>90</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" ref="P67" si="72">SMALL(P62:P63,1)</f>
         <v>92</v>
       </c>
-      <c r="R67" s="9" t="s">
+      <c r="R67" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3054,34 +3057,34 @@
         <v>4</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:P68" si="73">SMALL(D62:D63,2)</f>
+        <f t="shared" ref="D68" si="73">SMALL(D62:D63,2)</f>
         <v>18</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:P68" si="74">SMALL(F62:F63,2)</f>
+        <f t="shared" ref="F68" si="74">SMALL(F62:F63,2)</f>
         <v>23</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:P68" si="75">SMALL(H62:H63,2)</f>
+        <f t="shared" ref="H68" si="75">SMALL(H62:H63,2)</f>
         <v>33</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:P68" si="76">SMALL(J62:J63,2)</f>
+        <f t="shared" ref="J68" si="76">SMALL(J62:J63,2)</f>
         <v>56</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68:P68" si="77">SMALL(L62:L63,2)</f>
+        <f t="shared" ref="L68" si="77">SMALL(L62:L63,2)</f>
         <v>69</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" ref="N68:P68" si="78">SMALL(N62:N63,2)</f>
+        <f t="shared" ref="N68" si="78">SMALL(N62:N63,2)</f>
         <v>91</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" ref="P68" si="79">SMALL(P62:P63,2)</f>
         <v>93</v>
       </c>
-      <c r="R68" s="9"/>
+      <c r="R68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3102,7 +3105,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="63" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
